--- a/Caribe/Doc/메뉴얼/layout메뉴얼.xlsx
+++ b/Caribe/Doc/메뉴얼/layout메뉴얼.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="162">
   <si>
     <t>XWndProgressBar2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -643,6 +643,26 @@
   </si>
   <si>
     <t>유닛초상화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scroll_view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스크롤 뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>horiz/vert</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -720,6 +740,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -787,7 +810,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -822,7 +845,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1031,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1223,6 +1246,14 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
     <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
@@ -1321,7 +1352,7 @@
       <c r="C30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1329,7 +1360,7 @@
       <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
@@ -1424,13 +1455,13 @@
       <c r="C44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="9"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="9"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
@@ -1759,57 +1790,99 @@
         <v>136</v>
       </c>
     </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E95" s="9"/>
+    </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E96" s="9"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C97" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E97" s="9"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C98" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E98" s="9"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E99" s="9"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E100" s="9"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E101" s="9"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E102" s="9"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E103" s="9"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E104" s="9"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C99" s="2" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C109" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C100" s="2" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C110" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E110" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E102" s="8"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E112" s="8"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E103" s="8"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
+      <c r="E113" s="8"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B115" s="2" t="s">
         <v>156</v>
       </c>
     </row>

--- a/Caribe/Doc/메뉴얼/layout메뉴얼.xlsx
+++ b/Caribe/Doc/메뉴얼/layout메뉴얼.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -810,7 +810,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -845,7 +845,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1056,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>

--- a/Caribe/Doc/메뉴얼/layout메뉴얼.xlsx
+++ b/Caribe/Doc/메뉴얼/layout메뉴얼.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="183">
   <si>
     <t>XWndProgressBar2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -663,6 +663,90 @@
   </si>
   <si>
     <t>horiz/vert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영웅 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_ctrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬아이콘(원형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DWORD </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 식별자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abil_ctrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성아이콘(네모)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성 식별자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 계정 영웅 인덱스(레벨과 등급이 표시됨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨원 뒤에 빛효과가 붙는다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -740,6 +824,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -810,7 +900,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -845,7 +935,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1054,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1352,7 +1442,7 @@
       <c r="C30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1360,7 +1450,7 @@
       <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
@@ -1455,13 +1545,13 @@
       <c r="C44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="10"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="10"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
@@ -1879,11 +1969,118 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
+      <c r="C115" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E115" s="10"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C116" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C117" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C118" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E119" s="11"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>156</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E120" s="10"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C121" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D124" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D127" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
